--- a/questions solutions.xlsx
+++ b/questions solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09027c65704731a9/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09027c65704731a9/Desktop/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{759AE83A-5B98-4FC7-83D9-2D5B8A59A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{759AE83A-5B98-4FC7-83D9-2D5B8A59A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD28D38-F452-4C53-8CFE-668F775967FC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6128A90-C7FB-4559-ABE0-05F2E787C3DC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6128A90-C7FB-4559-ABE0-05F2E787C3DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>questions</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>here basically concating was really simple just se method in q and u r sorted ans[i] == nums[i] and ans[i + n] == nums[i]</t>
+  </si>
+  <si>
+    <t>lc 1470</t>
+  </si>
+  <si>
+    <t>just take in account value of n very similar to 1929</t>
   </si>
 </sst>
 </file>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F93097-6865-47DB-BE05-600E90344E03}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,6 +427,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/questions solutions.xlsx
+++ b/questions solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09027c65704731a9/Desktop/DSA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deevy\OneDrive\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{759AE83A-5B98-4FC7-83D9-2D5B8A59A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD28D38-F452-4C53-8CFE-668F775967FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0863D035-CC82-4BC3-B2E1-9CADE88612F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6128A90-C7FB-4559-ABE0-05F2E787C3DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6128A90-C7FB-4559-ABE0-05F2E787C3DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>questions</t>
   </si>
@@ -52,16 +52,34 @@
   </si>
   <si>
     <t>just take in account value of n very similar to 1929</t>
+  </si>
+  <si>
+    <t>just take in account value of n very similar to 1930</t>
+  </si>
+  <si>
+    <t>just take in account value of n very similar to 1931</t>
+  </si>
+  <si>
+    <t>just take in account value of n very similar to 1932</t>
+  </si>
+  <si>
+    <t>just take in account value of n very similar to 1933</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F93097-6865-47DB-BE05-600E90344E03}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -427,15 +445,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>